--- a/3_data_analysis/5_clustring/1_all_samples/cluster_2/cluster2.xlsx
+++ b/3_data_analysis/5_clustring/1_all_samples/cluster_2/cluster2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t xml:space="preserve">variable_id</t>
   </si>
@@ -23,925 +23,640 @@
     <t xml:space="preserve">cluster</t>
   </si>
   <si>
-    <t xml:space="preserve">protein_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8469</t>
+    <t xml:space="preserve">protein_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8455</t>
   </si>
 </sst>
 </file>
@@ -989,8 +704,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C308" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:C308"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C213" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:C213"/>
   <tableColumns count="3">
     <tableColumn id="1" name="variable_id"/>
     <tableColumn id="2" name="membership"/>
@@ -1301,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.999999999999999</v>
+        <v>0.992376830918937</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -1312,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.948778781896619</v>
+        <v>0.984614408706309</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1323,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.999988486915566</v>
+        <v>0.874246300388787</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -1334,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.954112797260518</v>
+        <v>0.997273683779974</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -1345,7 +1060,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.99999999999675</v>
+        <v>0.987380141399413</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -1356,7 +1071,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0.99999966041791</v>
+        <v>0.97573874595611</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -1367,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0.999625492004577</v>
+        <v>0.950716705624368</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1378,7 +1093,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0.99678994771459</v>
+        <v>0.946103581418283</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -1389,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>0.999999999513691</v>
+        <v>0.957369552430257</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -1400,7 +1115,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>0.999999999884449</v>
+        <v>0.945431469039063</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -1411,7 +1126,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.866413123297879</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -1422,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>0.999975011537046</v>
+        <v>0.999574454975035</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -1433,7 +1148,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>0.961970855634138</v>
+        <v>0.998887988055474</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -1444,7 +1159,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>0.999943301708609</v>
+        <v>0.932271325433653</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -1455,7 +1170,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>0.999999999956698</v>
+        <v>0.999678571273252</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -1466,7 +1181,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0.834955221013328</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -1477,7 +1192,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>0.879347839645912</v>
+        <v>0.991927332603082</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -1488,7 +1203,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>0.999998718333753</v>
+        <v>0.977420985874026</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -1499,7 +1214,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>0.861839672493589</v>
+        <v>0.990758419705576</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -1510,7 +1225,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>0.93453420125705</v>
+        <v>0.818106363343461</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -1521,7 +1236,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>0.994114538472532</v>
+        <v>0.984263027246382</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -1532,7 +1247,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>0.994850309889766</v>
+        <v>0.928054541618107</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
@@ -1543,7 +1258,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0.866341856273516</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -1554,7 +1269,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0.814604881088524</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -1565,7 +1280,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>0.995599913700362</v>
+        <v>0.819031846202959</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -1576,7 +1291,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>0.997379370216218</v>
+        <v>0.93956942307001</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -1587,7 +1302,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0.990298504043364</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -1598,7 +1313,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>0.999999999999772</v>
+        <v>0.81809017014951</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -1609,7 +1324,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0.999853590103442</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -1620,7 +1335,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>0.999999990710089</v>
+        <v>0.949079673083062</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -1631,7 +1346,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>0.685924473938893</v>
+        <v>0.999045170742406</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
@@ -1642,7 +1357,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>0.988674587804671</v>
+        <v>0.93608843527883</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
@@ -1653,7 +1368,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>0.999999999922943</v>
+        <v>0.993509250592484</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
@@ -1664,7 +1379,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>0.849215936498628</v>
+        <v>0.99274503750193</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
@@ -1675,7 +1390,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>0.999706083045956</v>
+        <v>0.973171084994208</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
@@ -1686,7 +1401,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>0.999780008634371</v>
+        <v>0.988984167097954</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
@@ -1697,7 +1412,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>0.994365421690051</v>
+        <v>0.960801068750867</v>
       </c>
       <c r="C38" t="n">
         <v>2</v>
@@ -1708,7 +1423,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>0.997502674380554</v>
+        <v>0.945182076061677</v>
       </c>
       <c r="C39" t="n">
         <v>2</v>
@@ -1719,7 +1434,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>0.969261193772034</v>
+        <v>0.890786432060869</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
@@ -1730,7 +1445,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>0.987092707370718</v>
+        <v>0.981631825448483</v>
       </c>
       <c r="C41" t="n">
         <v>2</v>
@@ -1741,7 +1456,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>0.999999991661168</v>
+        <v>0.970573315579957</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
@@ -1752,7 +1467,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>0.999999999999994</v>
+        <v>0.988850995932561</v>
       </c>
       <c r="C43" t="n">
         <v>2</v>
@@ -1763,7 +1478,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>0.999626827394256</v>
+        <v>0.933013350229685</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
@@ -1774,7 +1489,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>0.99981605206835</v>
+        <v>0.997240336620352</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
@@ -1785,7 +1500,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>0.999998860004069</v>
+        <v>0.99902498155122</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
@@ -1796,7 +1511,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0.882103612429208</v>
       </c>
       <c r="C47" t="n">
         <v>2</v>
@@ -1807,7 +1522,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>0.999999634784836</v>
+        <v>0.889036407026089</v>
       </c>
       <c r="C48" t="n">
         <v>2</v>
@@ -1818,7 +1533,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="n">
-        <v>0.999973191765717</v>
+        <v>0.999424375118378</v>
       </c>
       <c r="C49" t="n">
         <v>2</v>
@@ -1829,7 +1544,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>0.999296615341563</v>
+        <v>0.961733316914713</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
@@ -1840,7 +1555,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0.871313288523516</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
@@ -1851,7 +1566,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>0.916397249646256</v>
+        <v>0.814124110606643</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
@@ -1862,7 +1577,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="n">
-        <v>0.956178548871557</v>
+        <v>0.970618965662266</v>
       </c>
       <c r="C53" t="n">
         <v>2</v>
@@ -1873,7 +1588,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0.903222572421398</v>
       </c>
       <c r="C54" t="n">
         <v>2</v>
@@ -1884,7 +1599,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="n">
-        <v>0.999999999999443</v>
+        <v>0.91575532519545</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
@@ -1895,7 +1610,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="n">
-        <v>0.99999892405686</v>
+        <v>0.964636026352719</v>
       </c>
       <c r="C56" t="n">
         <v>2</v>
@@ -1906,7 +1621,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0.995341776401288</v>
       </c>
       <c r="C57" t="n">
         <v>2</v>
@@ -1917,7 +1632,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="n">
-        <v>0.883865392008145</v>
+        <v>0.842016089745531</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
@@ -1928,7 +1643,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="n">
-        <v>0.999999999999908</v>
+        <v>0.869970125702121</v>
       </c>
       <c r="C59" t="n">
         <v>2</v>
@@ -1939,7 +1654,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="n">
-        <v>0.817002912111132</v>
+        <v>0.822028038864607</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
@@ -1950,7 +1665,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="n">
-        <v>0.999999999996342</v>
+        <v>0.944315097576374</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
@@ -1961,7 +1676,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="n">
-        <v>0.999999999999796</v>
+        <v>0.833043879683348</v>
       </c>
       <c r="C62" t="n">
         <v>2</v>
@@ -1972,7 +1687,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="n">
-        <v>0.999798174187417</v>
+        <v>0.851364854506553</v>
       </c>
       <c r="C63" t="n">
         <v>2</v>
@@ -1983,7 +1698,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="n">
-        <v>0.991796797198833</v>
+        <v>0.864491943898021</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
@@ -1994,7 +1709,7 @@
         <v>66</v>
       </c>
       <c r="B65" t="n">
-        <v>0.999760050273204</v>
+        <v>0.910121273763322</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
@@ -2005,7 +1720,7 @@
         <v>67</v>
       </c>
       <c r="B66" t="n">
-        <v>0.857629607592124</v>
+        <v>0.993541025907179</v>
       </c>
       <c r="C66" t="n">
         <v>2</v>
@@ -2016,7 +1731,7 @@
         <v>68</v>
       </c>
       <c r="B67" t="n">
-        <v>0.999969613480845</v>
+        <v>0.997915168706368</v>
       </c>
       <c r="C67" t="n">
         <v>2</v>
@@ -2027,7 +1742,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="n">
-        <v>0.995562317571687</v>
+        <v>0.889504604143328</v>
       </c>
       <c r="C68" t="n">
         <v>2</v>
@@ -2038,7 +1753,7 @@
         <v>70</v>
       </c>
       <c r="B69" t="n">
-        <v>0.999993398156958</v>
+        <v>0.997656404282184</v>
       </c>
       <c r="C69" t="n">
         <v>2</v>
@@ -2049,7 +1764,7 @@
         <v>71</v>
       </c>
       <c r="B70" t="n">
-        <v>0.946310594680482</v>
+        <v>0.961667124214572</v>
       </c>
       <c r="C70" t="n">
         <v>2</v>
@@ -2060,7 +1775,7 @@
         <v>72</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0.989745075315442</v>
       </c>
       <c r="C71" t="n">
         <v>2</v>
@@ -2071,7 +1786,7 @@
         <v>73</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0.93144088206227</v>
       </c>
       <c r="C72" t="n">
         <v>2</v>
@@ -2082,7 +1797,7 @@
         <v>74</v>
       </c>
       <c r="B73" t="n">
-        <v>0.999984593797121</v>
+        <v>0.813011248173886</v>
       </c>
       <c r="C73" t="n">
         <v>2</v>
@@ -2093,7 +1808,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="n">
-        <v>0.999999999998262</v>
+        <v>0.892604664911715</v>
       </c>
       <c r="C74" t="n">
         <v>2</v>
@@ -2104,7 +1819,7 @@
         <v>76</v>
       </c>
       <c r="B75" t="n">
-        <v>0.999999998777886</v>
+        <v>0.994655654885941</v>
       </c>
       <c r="C75" t="n">
         <v>2</v>
@@ -2115,7 +1830,7 @@
         <v>77</v>
       </c>
       <c r="B76" t="n">
-        <v>0.999999981084709</v>
+        <v>0.990777624616535</v>
       </c>
       <c r="C76" t="n">
         <v>2</v>
@@ -2126,7 +1841,7 @@
         <v>78</v>
       </c>
       <c r="B77" t="n">
-        <v>0.501161124390753</v>
+        <v>0.990561939235179</v>
       </c>
       <c r="C77" t="n">
         <v>2</v>
@@ -2137,7 +1852,7 @@
         <v>79</v>
       </c>
       <c r="B78" t="n">
-        <v>0.999999999998595</v>
+        <v>0.998420770473931</v>
       </c>
       <c r="C78" t="n">
         <v>2</v>
@@ -2148,7 +1863,7 @@
         <v>80</v>
       </c>
       <c r="B79" t="n">
-        <v>0.747318598769817</v>
+        <v>0.926881905320211</v>
       </c>
       <c r="C79" t="n">
         <v>2</v>
@@ -2159,7 +1874,7 @@
         <v>81</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0.98932846031499</v>
       </c>
       <c r="C80" t="n">
         <v>2</v>
@@ -2170,7 +1885,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="n">
-        <v>0.99999999611285</v>
+        <v>0.993966183270164</v>
       </c>
       <c r="C81" t="n">
         <v>2</v>
@@ -2181,7 +1896,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="n">
-        <v>0.989410265626808</v>
+        <v>0.8401325434908</v>
       </c>
       <c r="C82" t="n">
         <v>2</v>
@@ -2192,7 +1907,7 @@
         <v>84</v>
       </c>
       <c r="B83" t="n">
-        <v>0.913158072046284</v>
+        <v>0.927820306514073</v>
       </c>
       <c r="C83" t="n">
         <v>2</v>
@@ -2203,7 +1918,7 @@
         <v>85</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0.828258319056226</v>
       </c>
       <c r="C84" t="n">
         <v>2</v>
@@ -2214,7 +1929,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="n">
-        <v>0.999999999999919</v>
+        <v>0.928584682437578</v>
       </c>
       <c r="C85" t="n">
         <v>2</v>
@@ -2225,7 +1940,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="n">
-        <v>0.999999999999996</v>
+        <v>0.95877748509044</v>
       </c>
       <c r="C86" t="n">
         <v>2</v>
@@ -2236,7 +1951,7 @@
         <v>88</v>
       </c>
       <c r="B87" t="n">
-        <v>0.99868115801168</v>
+        <v>0.835838413319527</v>
       </c>
       <c r="C87" t="n">
         <v>2</v>
@@ -2247,7 +1962,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0.882975453279211</v>
       </c>
       <c r="C88" t="n">
         <v>2</v>
@@ -2258,7 +1973,7 @@
         <v>90</v>
       </c>
       <c r="B89" t="n">
-        <v>0.996253712451889</v>
+        <v>0.949681202694667</v>
       </c>
       <c r="C89" t="n">
         <v>2</v>
@@ -2269,7 +1984,7 @@
         <v>91</v>
       </c>
       <c r="B90" t="n">
-        <v>0.841579789018715</v>
+        <v>0.983276378677887</v>
       </c>
       <c r="C90" t="n">
         <v>2</v>
@@ -2280,7 +1995,7 @@
         <v>92</v>
       </c>
       <c r="B91" t="n">
-        <v>0.999999999999591</v>
+        <v>0.999758119149371</v>
       </c>
       <c r="C91" t="n">
         <v>2</v>
@@ -2291,7 +2006,7 @@
         <v>93</v>
       </c>
       <c r="B92" t="n">
-        <v>0.999999999999996</v>
+        <v>0.958848626689381</v>
       </c>
       <c r="C92" t="n">
         <v>2</v>
@@ -2302,7 +2017,7 @@
         <v>94</v>
       </c>
       <c r="B93" t="n">
-        <v>0.550443908759872</v>
+        <v>0.992467108982093</v>
       </c>
       <c r="C93" t="n">
         <v>2</v>
@@ -2313,7 +2028,7 @@
         <v>95</v>
       </c>
       <c r="B94" t="n">
-        <v>0.999999999976933</v>
+        <v>0.877266659401834</v>
       </c>
       <c r="C94" t="n">
         <v>2</v>
@@ -2324,7 +2039,7 @@
         <v>96</v>
       </c>
       <c r="B95" t="n">
-        <v>0.999999967704945</v>
+        <v>0.968745472845191</v>
       </c>
       <c r="C95" t="n">
         <v>2</v>
@@ -2335,7 +2050,7 @@
         <v>97</v>
       </c>
       <c r="B96" t="n">
-        <v>0.832762171009885</v>
+        <v>0.926962455186575</v>
       </c>
       <c r="C96" t="n">
         <v>2</v>
@@ -2346,7 +2061,7 @@
         <v>98</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0.991257426382265</v>
       </c>
       <c r="C97" t="n">
         <v>2</v>
@@ -2357,7 +2072,7 @@
         <v>99</v>
       </c>
       <c r="B98" t="n">
-        <v>0.999982216740492</v>
+        <v>0.997139803032386</v>
       </c>
       <c r="C98" t="n">
         <v>2</v>
@@ -2368,7 +2083,7 @@
         <v>100</v>
       </c>
       <c r="B99" t="n">
-        <v>0.999892890125906</v>
+        <v>0.802086369079646</v>
       </c>
       <c r="C99" t="n">
         <v>2</v>
@@ -2379,7 +2094,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="n">
-        <v>0.647448022552142</v>
+        <v>0.985203446736218</v>
       </c>
       <c r="C100" t="n">
         <v>2</v>
@@ -2390,7 +2105,7 @@
         <v>102</v>
       </c>
       <c r="B101" t="n">
-        <v>0.99999999999992</v>
+        <v>0.925540113874189</v>
       </c>
       <c r="C101" t="n">
         <v>2</v>
@@ -2401,7 +2116,7 @@
         <v>103</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0.827562245538314</v>
       </c>
       <c r="C102" t="n">
         <v>2</v>
@@ -2412,7 +2127,7 @@
         <v>104</v>
       </c>
       <c r="B103" t="n">
-        <v>0.999874481086392</v>
+        <v>0.999822458709338</v>
       </c>
       <c r="C103" t="n">
         <v>2</v>
@@ -2423,7 +2138,7 @@
         <v>105</v>
       </c>
       <c r="B104" t="n">
-        <v>0.981793299924887</v>
+        <v>0.9562364013892</v>
       </c>
       <c r="C104" t="n">
         <v>2</v>
@@ -2434,7 +2149,7 @@
         <v>106</v>
       </c>
       <c r="B105" t="n">
-        <v>0.999938553554063</v>
+        <v>0.999924299435612</v>
       </c>
       <c r="C105" t="n">
         <v>2</v>
@@ -2445,7 +2160,7 @@
         <v>107</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0.991266096589447</v>
       </c>
       <c r="C106" t="n">
         <v>2</v>
@@ -2456,7 +2171,7 @@
         <v>108</v>
       </c>
       <c r="B107" t="n">
-        <v>0.999999975546111</v>
+        <v>0.93649105509729</v>
       </c>
       <c r="C107" t="n">
         <v>2</v>
@@ -2467,7 +2182,7 @@
         <v>109</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0.996902395610373</v>
       </c>
       <c r="C108" t="n">
         <v>2</v>
@@ -2478,7 +2193,7 @@
         <v>110</v>
       </c>
       <c r="B109" t="n">
-        <v>0.99992956350227</v>
+        <v>0.991162111158598</v>
       </c>
       <c r="C109" t="n">
         <v>2</v>
@@ -2489,7 +2204,7 @@
         <v>111</v>
       </c>
       <c r="B110" t="n">
-        <v>0.99999999999995</v>
+        <v>0.998329528606453</v>
       </c>
       <c r="C110" t="n">
         <v>2</v>
@@ -2500,7 +2215,7 @@
         <v>112</v>
       </c>
       <c r="B111" t="n">
-        <v>0.997052143109195</v>
+        <v>0.829978597944556</v>
       </c>
       <c r="C111" t="n">
         <v>2</v>
@@ -2511,7 +2226,7 @@
         <v>113</v>
       </c>
       <c r="B112" t="n">
-        <v>0.999999999999546</v>
+        <v>0.98230875926793</v>
       </c>
       <c r="C112" t="n">
         <v>2</v>
@@ -2522,7 +2237,7 @@
         <v>114</v>
       </c>
       <c r="B113" t="n">
-        <v>0.991969600440391</v>
+        <v>0.990873820852841</v>
       </c>
       <c r="C113" t="n">
         <v>2</v>
@@ -2533,7 +2248,7 @@
         <v>115</v>
       </c>
       <c r="B114" t="n">
-        <v>0.987556150345137</v>
+        <v>0.955267600447381</v>
       </c>
       <c r="C114" t="n">
         <v>2</v>
@@ -2544,7 +2259,7 @@
         <v>116</v>
       </c>
       <c r="B115" t="n">
-        <v>0.999988296726831</v>
+        <v>0.995032371937336</v>
       </c>
       <c r="C115" t="n">
         <v>2</v>
@@ -2555,7 +2270,7 @@
         <v>117</v>
       </c>
       <c r="B116" t="n">
-        <v>0.999796579588075</v>
+        <v>0.999991907019963</v>
       </c>
       <c r="C116" t="n">
         <v>2</v>
@@ -2566,7 +2281,7 @@
         <v>118</v>
       </c>
       <c r="B117" t="n">
-        <v>0.994611520865415</v>
+        <v>0.969471965105842</v>
       </c>
       <c r="C117" t="n">
         <v>2</v>
@@ -2577,7 +2292,7 @@
         <v>119</v>
       </c>
       <c r="B118" t="n">
-        <v>0.99999688367979</v>
+        <v>0.999670863297182</v>
       </c>
       <c r="C118" t="n">
         <v>2</v>
@@ -2588,7 +2303,7 @@
         <v>120</v>
       </c>
       <c r="B119" t="n">
-        <v>0.999999988096843</v>
+        <v>0.901168465345817</v>
       </c>
       <c r="C119" t="n">
         <v>2</v>
@@ -2599,7 +2314,7 @@
         <v>121</v>
       </c>
       <c r="B120" t="n">
-        <v>0.999826266393662</v>
+        <v>0.88635103343126</v>
       </c>
       <c r="C120" t="n">
         <v>2</v>
@@ -2610,7 +2325,7 @@
         <v>122</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0.998430270070079</v>
       </c>
       <c r="C121" t="n">
         <v>2</v>
@@ -2621,7 +2336,7 @@
         <v>123</v>
       </c>
       <c r="B122" t="n">
-        <v>0.999999999999016</v>
+        <v>0.949487078676234</v>
       </c>
       <c r="C122" t="n">
         <v>2</v>
@@ -2632,7 +2347,7 @@
         <v>124</v>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0.997998408261523</v>
       </c>
       <c r="C123" t="n">
         <v>2</v>
@@ -2643,7 +2358,7 @@
         <v>125</v>
       </c>
       <c r="B124" t="n">
-        <v>0.999999999999719</v>
+        <v>0.97599805731391</v>
       </c>
       <c r="C124" t="n">
         <v>2</v>
@@ -2654,7 +2369,7 @@
         <v>126</v>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0.981103377920399</v>
       </c>
       <c r="C125" t="n">
         <v>2</v>
@@ -2665,7 +2380,7 @@
         <v>127</v>
       </c>
       <c r="B126" t="n">
-        <v>0.999988835239042</v>
+        <v>0.930591123408663</v>
       </c>
       <c r="C126" t="n">
         <v>2</v>
@@ -2676,7 +2391,7 @@
         <v>128</v>
       </c>
       <c r="B127" t="n">
-        <v>0.999997354284533</v>
+        <v>0.997773896374276</v>
       </c>
       <c r="C127" t="n">
         <v>2</v>
@@ -2687,7 +2402,7 @@
         <v>129</v>
       </c>
       <c r="B128" t="n">
-        <v>0.985270783997696</v>
+        <v>0.99768269361163</v>
       </c>
       <c r="C128" t="n">
         <v>2</v>
@@ -2698,7 +2413,7 @@
         <v>130</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0.814509292273162</v>
       </c>
       <c r="C129" t="n">
         <v>2</v>
@@ -2709,7 +2424,7 @@
         <v>131</v>
       </c>
       <c r="B130" t="n">
-        <v>0.999999980092825</v>
+        <v>0.822510423346377</v>
       </c>
       <c r="C130" t="n">
         <v>2</v>
@@ -2720,7 +2435,7 @@
         <v>132</v>
       </c>
       <c r="B131" t="n">
-        <v>0.999999912173046</v>
+        <v>0.955166524441502</v>
       </c>
       <c r="C131" t="n">
         <v>2</v>
@@ -2731,7 +2446,7 @@
         <v>133</v>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0.904563352117716</v>
       </c>
       <c r="C132" t="n">
         <v>2</v>
@@ -2742,7 +2457,7 @@
         <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0.982832555858997</v>
       </c>
       <c r="C133" t="n">
         <v>2</v>
@@ -2753,7 +2468,7 @@
         <v>135</v>
       </c>
       <c r="B134" t="n">
-        <v>0.999830915041818</v>
+        <v>0.951234266063466</v>
       </c>
       <c r="C134" t="n">
         <v>2</v>
@@ -2764,7 +2479,7 @@
         <v>136</v>
       </c>
       <c r="B135" t="n">
-        <v>0.979157364107158</v>
+        <v>0.87489315444676</v>
       </c>
       <c r="C135" t="n">
         <v>2</v>
@@ -2775,7 +2490,7 @@
         <v>137</v>
       </c>
       <c r="B136" t="n">
-        <v>0.870599280666901</v>
+        <v>0.888164578720777</v>
       </c>
       <c r="C136" t="n">
         <v>2</v>
@@ -2786,7 +2501,7 @@
         <v>138</v>
       </c>
       <c r="B137" t="n">
-        <v>0.999999583799892</v>
+        <v>0.98086972384266</v>
       </c>
       <c r="C137" t="n">
         <v>2</v>
@@ -2797,7 +2512,7 @@
         <v>139</v>
       </c>
       <c r="B138" t="n">
-        <v>0.999999684375604</v>
+        <v>0.999907215690099</v>
       </c>
       <c r="C138" t="n">
         <v>2</v>
@@ -2808,7 +2523,7 @@
         <v>140</v>
       </c>
       <c r="B139" t="n">
-        <v>0.99212268596597</v>
+        <v>0.996555648153665</v>
       </c>
       <c r="C139" t="n">
         <v>2</v>
@@ -2819,7 +2534,7 @@
         <v>141</v>
       </c>
       <c r="B140" t="n">
-        <v>0.999999999952414</v>
+        <v>0.826525841589328</v>
       </c>
       <c r="C140" t="n">
         <v>2</v>
@@ -2830,7 +2545,7 @@
         <v>142</v>
       </c>
       <c r="B141" t="n">
-        <v>0.99996486561132</v>
+        <v>0.985561992244242</v>
       </c>
       <c r="C141" t="n">
         <v>2</v>
@@ -2841,7 +2556,7 @@
         <v>143</v>
       </c>
       <c r="B142" t="n">
-        <v>0.944223305177903</v>
+        <v>0.880926723930124</v>
       </c>
       <c r="C142" t="n">
         <v>2</v>
@@ -2852,7 +2567,7 @@
         <v>144</v>
       </c>
       <c r="B143" t="n">
-        <v>0.999999997733248</v>
+        <v>0.816943008017327</v>
       </c>
       <c r="C143" t="n">
         <v>2</v>
@@ -2863,7 +2578,7 @@
         <v>145</v>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0.813700069764804</v>
       </c>
       <c r="C144" t="n">
         <v>2</v>
@@ -2874,7 +2589,7 @@
         <v>146</v>
       </c>
       <c r="B145" t="n">
-        <v>0.999991445884998</v>
+        <v>0.927679618881119</v>
       </c>
       <c r="C145" t="n">
         <v>2</v>
@@ -2885,7 +2600,7 @@
         <v>147</v>
       </c>
       <c r="B146" t="n">
-        <v>0.999999160354714</v>
+        <v>0.990092022247013</v>
       </c>
       <c r="C146" t="n">
         <v>2</v>
@@ -2896,7 +2611,7 @@
         <v>148</v>
       </c>
       <c r="B147" t="n">
-        <v>0.999988321618184</v>
+        <v>0.87787327015203</v>
       </c>
       <c r="C147" t="n">
         <v>2</v>
@@ -2907,7 +2622,7 @@
         <v>149</v>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0.875732413296687</v>
       </c>
       <c r="C148" t="n">
         <v>2</v>
@@ -2918,7 +2633,7 @@
         <v>150</v>
       </c>
       <c r="B149" t="n">
-        <v>0.999997642195029</v>
+        <v>0.960211994510845</v>
       </c>
       <c r="C149" t="n">
         <v>2</v>
@@ -2929,7 +2644,7 @@
         <v>151</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0.990558719017047</v>
       </c>
       <c r="C150" t="n">
         <v>2</v>
@@ -2940,7 +2655,7 @@
         <v>152</v>
       </c>
       <c r="B151" t="n">
-        <v>0.751317698371025</v>
+        <v>0.850989738885442</v>
       </c>
       <c r="C151" t="n">
         <v>2</v>
@@ -2951,7 +2666,7 @@
         <v>153</v>
       </c>
       <c r="B152" t="n">
-        <v>0.989767573213012</v>
+        <v>0.995813975225605</v>
       </c>
       <c r="C152" t="n">
         <v>2</v>
@@ -2962,7 +2677,7 @@
         <v>154</v>
       </c>
       <c r="B153" t="n">
-        <v>0.897359127672596</v>
+        <v>0.878025414950924</v>
       </c>
       <c r="C153" t="n">
         <v>2</v>
@@ -2973,7 +2688,7 @@
         <v>155</v>
       </c>
       <c r="B154" t="n">
-        <v>0.924948595126127</v>
+        <v>0.813567975288318</v>
       </c>
       <c r="C154" t="n">
         <v>2</v>
@@ -2984,7 +2699,7 @@
         <v>156</v>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0.96557228800845</v>
       </c>
       <c r="C155" t="n">
         <v>2</v>
@@ -2995,7 +2710,7 @@
         <v>157</v>
       </c>
       <c r="B156" t="n">
-        <v>0.999970676387618</v>
+        <v>0.821441840380729</v>
       </c>
       <c r="C156" t="n">
         <v>2</v>
@@ -3006,7 +2721,7 @@
         <v>158</v>
       </c>
       <c r="B157" t="n">
-        <v>0.999939687837287</v>
+        <v>0.970598275023029</v>
       </c>
       <c r="C157" t="n">
         <v>2</v>
@@ -3017,7 +2732,7 @@
         <v>159</v>
       </c>
       <c r="B158" t="n">
-        <v>0.998823482012249</v>
+        <v>0.999458250272366</v>
       </c>
       <c r="C158" t="n">
         <v>2</v>
@@ -3028,7 +2743,7 @@
         <v>160</v>
       </c>
       <c r="B159" t="n">
-        <v>0.989345462159187</v>
+        <v>0.87858781089946</v>
       </c>
       <c r="C159" t="n">
         <v>2</v>
@@ -3039,7 +2754,7 @@
         <v>161</v>
       </c>
       <c r="B160" t="n">
-        <v>0.97412970974212</v>
+        <v>0.999402128539558</v>
       </c>
       <c r="C160" t="n">
         <v>2</v>
@@ -3050,7 +2765,7 @@
         <v>162</v>
       </c>
       <c r="B161" t="n">
-        <v>0.999974968199697</v>
+        <v>0.983467363024444</v>
       </c>
       <c r="C161" t="n">
         <v>2</v>
@@ -3061,7 +2776,7 @@
         <v>163</v>
       </c>
       <c r="B162" t="n">
-        <v>0.994255428846133</v>
+        <v>0.925871174456341</v>
       </c>
       <c r="C162" t="n">
         <v>2</v>
@@ -3072,7 +2787,7 @@
         <v>164</v>
       </c>
       <c r="B163" t="n">
-        <v>0.999217944075558</v>
+        <v>0.973795933892777</v>
       </c>
       <c r="C163" t="n">
         <v>2</v>
@@ -3083,7 +2798,7 @@
         <v>165</v>
       </c>
       <c r="B164" t="n">
-        <v>0.999999999994468</v>
+        <v>0.931071788935282</v>
       </c>
       <c r="C164" t="n">
         <v>2</v>
@@ -3094,7 +2809,7 @@
         <v>166</v>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0.952266232690255</v>
       </c>
       <c r="C165" t="n">
         <v>2</v>
@@ -3105,7 +2820,7 @@
         <v>167</v>
       </c>
       <c r="B166" t="n">
-        <v>0.995445683455845</v>
+        <v>0.999932464121085</v>
       </c>
       <c r="C166" t="n">
         <v>2</v>
@@ -3116,7 +2831,7 @@
         <v>168</v>
       </c>
       <c r="B167" t="n">
-        <v>0.990107484554752</v>
+        <v>0.99974017104986</v>
       </c>
       <c r="C167" t="n">
         <v>2</v>
@@ -3127,7 +2842,7 @@
         <v>169</v>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0.861435770127894</v>
       </c>
       <c r="C168" t="n">
         <v>2</v>
@@ -3138,7 +2853,7 @@
         <v>170</v>
       </c>
       <c r="B169" t="n">
-        <v>0.967762237815387</v>
+        <v>0.944134244924892</v>
       </c>
       <c r="C169" t="n">
         <v>2</v>
@@ -3149,7 +2864,7 @@
         <v>171</v>
       </c>
       <c r="B170" t="n">
-        <v>0.844053074858088</v>
+        <v>0.999534633365779</v>
       </c>
       <c r="C170" t="n">
         <v>2</v>
@@ -3160,7 +2875,7 @@
         <v>172</v>
       </c>
       <c r="B171" t="n">
-        <v>0.999998125726859</v>
+        <v>0.928808538922456</v>
       </c>
       <c r="C171" t="n">
         <v>2</v>
@@ -3171,7 +2886,7 @@
         <v>173</v>
       </c>
       <c r="B172" t="n">
-        <v>0.810152111448548</v>
+        <v>0.916897352924255</v>
       </c>
       <c r="C172" t="n">
         <v>2</v>
@@ -3182,7 +2897,7 @@
         <v>174</v>
       </c>
       <c r="B173" t="n">
-        <v>0.971053786099919</v>
+        <v>0.999853278147345</v>
       </c>
       <c r="C173" t="n">
         <v>2</v>
@@ -3193,7 +2908,7 @@
         <v>175</v>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0.826075055829558</v>
       </c>
       <c r="C174" t="n">
         <v>2</v>
@@ -3204,7 +2919,7 @@
         <v>176</v>
       </c>
       <c r="B175" t="n">
-        <v>0.927323993994453</v>
+        <v>0.999348196179247</v>
       </c>
       <c r="C175" t="n">
         <v>2</v>
@@ -3215,7 +2930,7 @@
         <v>177</v>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0.879654757099038</v>
       </c>
       <c r="C176" t="n">
         <v>2</v>
@@ -3226,7 +2941,7 @@
         <v>178</v>
       </c>
       <c r="B177" t="n">
-        <v>0.959393918892036</v>
+        <v>0.940102897389714</v>
       </c>
       <c r="C177" t="n">
         <v>2</v>
@@ -3237,7 +2952,7 @@
         <v>179</v>
       </c>
       <c r="B178" t="n">
-        <v>0.999995477314224</v>
+        <v>0.927040573989808</v>
       </c>
       <c r="C178" t="n">
         <v>2</v>
@@ -3248,7 +2963,7 @@
         <v>180</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0.989773492619617</v>
       </c>
       <c r="C179" t="n">
         <v>2</v>
@@ -3259,7 +2974,7 @@
         <v>181</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0.99433692268163</v>
       </c>
       <c r="C180" t="n">
         <v>2</v>
@@ -3270,7 +2985,7 @@
         <v>182</v>
       </c>
       <c r="B181" t="n">
-        <v>0.788014340443703</v>
+        <v>0.998822922327778</v>
       </c>
       <c r="C181" t="n">
         <v>2</v>
@@ -3281,7 +2996,7 @@
         <v>183</v>
       </c>
       <c r="B182" t="n">
-        <v>0.664514819988103</v>
+        <v>0.99105790196038</v>
       </c>
       <c r="C182" t="n">
         <v>2</v>
@@ -3292,7 +3007,7 @@
         <v>184</v>
       </c>
       <c r="B183" t="n">
-        <v>0.999999999887244</v>
+        <v>0.837897631946132</v>
       </c>
       <c r="C183" t="n">
         <v>2</v>
@@ -3303,7 +3018,7 @@
         <v>185</v>
       </c>
       <c r="B184" t="n">
-        <v>0.999996410659344</v>
+        <v>0.993865017257038</v>
       </c>
       <c r="C184" t="n">
         <v>2</v>
@@ -3314,7 +3029,7 @@
         <v>186</v>
       </c>
       <c r="B185" t="n">
-        <v>0.999999997538481</v>
+        <v>0.988919899943652</v>
       </c>
       <c r="C185" t="n">
         <v>2</v>
@@ -3325,7 +3040,7 @@
         <v>187</v>
       </c>
       <c r="B186" t="n">
-        <v>0.892132948324991</v>
+        <v>0.945141443596448</v>
       </c>
       <c r="C186" t="n">
         <v>2</v>
@@ -3336,7 +3051,7 @@
         <v>188</v>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0.828551343728905</v>
       </c>
       <c r="C187" t="n">
         <v>2</v>
@@ -3347,7 +3062,7 @@
         <v>189</v>
       </c>
       <c r="B188" t="n">
-        <v>0.999950665417065</v>
+        <v>0.997677489625621</v>
       </c>
       <c r="C188" t="n">
         <v>2</v>
@@ -3358,7 +3073,7 @@
         <v>190</v>
       </c>
       <c r="B189" t="n">
-        <v>0.999999999999995</v>
+        <v>0.939421183523183</v>
       </c>
       <c r="C189" t="n">
         <v>2</v>
@@ -3369,7 +3084,7 @@
         <v>191</v>
       </c>
       <c r="B190" t="n">
-        <v>0.999999887038191</v>
+        <v>0.866153502815622</v>
       </c>
       <c r="C190" t="n">
         <v>2</v>
@@ -3380,7 +3095,7 @@
         <v>192</v>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0.852778250111577</v>
       </c>
       <c r="C191" t="n">
         <v>2</v>
@@ -3391,7 +3106,7 @@
         <v>193</v>
       </c>
       <c r="B192" t="n">
-        <v>0.999999998506228</v>
+        <v>0.939335306854424</v>
       </c>
       <c r="C192" t="n">
         <v>2</v>
@@ -3402,7 +3117,7 @@
         <v>194</v>
       </c>
       <c r="B193" t="n">
-        <v>0.835587813664588</v>
+        <v>0.99301932539591</v>
       </c>
       <c r="C193" t="n">
         <v>2</v>
@@ -3413,7 +3128,7 @@
         <v>195</v>
       </c>
       <c r="B194" t="n">
-        <v>0.999818703043078</v>
+        <v>0.919086318511708</v>
       </c>
       <c r="C194" t="n">
         <v>2</v>
@@ -3424,7 +3139,7 @@
         <v>196</v>
       </c>
       <c r="B195" t="n">
-        <v>0.999999993416797</v>
+        <v>0.866188055456676</v>
       </c>
       <c r="C195" t="n">
         <v>2</v>
@@ -3435,7 +3150,7 @@
         <v>197</v>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0.993264115566876</v>
       </c>
       <c r="C196" t="n">
         <v>2</v>
@@ -3446,7 +3161,7 @@
         <v>198</v>
       </c>
       <c r="B197" t="n">
-        <v>0.999986744585682</v>
+        <v>0.827325354356833</v>
       </c>
       <c r="C197" t="n">
         <v>2</v>
@@ -3457,7 +3172,7 @@
         <v>199</v>
       </c>
       <c r="B198" t="n">
-        <v>0.99991730492154</v>
+        <v>0.934400766179671</v>
       </c>
       <c r="C198" t="n">
         <v>2</v>
@@ -3468,7 +3183,7 @@
         <v>200</v>
       </c>
       <c r="B199" t="n">
-        <v>0.99707022486438</v>
+        <v>0.99213628014781</v>
       </c>
       <c r="C199" t="n">
         <v>2</v>
@@ -3479,7 +3194,7 @@
         <v>201</v>
       </c>
       <c r="B200" t="n">
-        <v>0.999999999211595</v>
+        <v>0.825060739271716</v>
       </c>
       <c r="C200" t="n">
         <v>2</v>
@@ -3490,7 +3205,7 @@
         <v>202</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0.92161472301118</v>
       </c>
       <c r="C201" t="n">
         <v>2</v>
@@ -3501,7 +3216,7 @@
         <v>203</v>
       </c>
       <c r="B202" t="n">
-        <v>0.999988036366775</v>
+        <v>0.979068397927119</v>
       </c>
       <c r="C202" t="n">
         <v>2</v>
@@ -3512,7 +3227,7 @@
         <v>204</v>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0.875263730775232</v>
       </c>
       <c r="C203" t="n">
         <v>2</v>
@@ -3523,7 +3238,7 @@
         <v>205</v>
       </c>
       <c r="B204" t="n">
-        <v>0.999999986679977</v>
+        <v>0.968716745251151</v>
       </c>
       <c r="C204" t="n">
         <v>2</v>
@@ -3534,7 +3249,7 @@
         <v>206</v>
       </c>
       <c r="B205" t="n">
-        <v>0.99999949677234</v>
+        <v>0.958573850432025</v>
       </c>
       <c r="C205" t="n">
         <v>2</v>
@@ -3545,7 +3260,7 @@
         <v>207</v>
       </c>
       <c r="B206" t="n">
-        <v>0.649167926068408</v>
+        <v>0.898052159457671</v>
       </c>
       <c r="C206" t="n">
         <v>2</v>
@@ -3556,7 +3271,7 @@
         <v>208</v>
       </c>
       <c r="B207" t="n">
-        <v>0.95697033789615</v>
+        <v>0.96574866354221</v>
       </c>
       <c r="C207" t="n">
         <v>2</v>
@@ -3567,7 +3282,7 @@
         <v>209</v>
       </c>
       <c r="B208" t="n">
-        <v>0.99999984624392</v>
+        <v>0.955424412294425</v>
       </c>
       <c r="C208" t="n">
         <v>2</v>
@@ -3578,7 +3293,7 @@
         <v>210</v>
       </c>
       <c r="B209" t="n">
-        <v>0.999914433659409</v>
+        <v>0.993445217625292</v>
       </c>
       <c r="C209" t="n">
         <v>2</v>
@@ -3589,7 +3304,7 @@
         <v>211</v>
       </c>
       <c r="B210" t="n">
-        <v>0.999999999994981</v>
+        <v>0.999892835417667</v>
       </c>
       <c r="C210" t="n">
         <v>2</v>
@@ -3600,7 +3315,7 @@
         <v>212</v>
       </c>
       <c r="B211" t="n">
-        <v>0.99994019646182</v>
+        <v>0.919983617994983</v>
       </c>
       <c r="C211" t="n">
         <v>2</v>
@@ -3611,7 +3326,7 @@
         <v>213</v>
       </c>
       <c r="B212" t="n">
-        <v>0.999997696091212</v>
+        <v>0.984497005243076</v>
       </c>
       <c r="C212" t="n">
         <v>2</v>
@@ -3622,1054 +3337,9 @@
         <v>214</v>
       </c>
       <c r="B213" t="n">
-        <v>0.999999830861892</v>
+        <v>0.98720544874012</v>
       </c>
       <c r="C213" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s">
-        <v>215</v>
-      </c>
-      <c r="B214" t="n">
-        <v>0.969111484819623</v>
-      </c>
-      <c r="C214" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s">
-        <v>216</v>
-      </c>
-      <c r="B215" t="n">
-        <v>0.989158092306959</v>
-      </c>
-      <c r="C215" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s">
-        <v>217</v>
-      </c>
-      <c r="B216" t="n">
-        <v>0.99999999436553</v>
-      </c>
-      <c r="C216" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s">
-        <v>218</v>
-      </c>
-      <c r="B217" t="n">
-        <v>0.764199134694158</v>
-      </c>
-      <c r="C217" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s">
-        <v>219</v>
-      </c>
-      <c r="B218" t="n">
-        <v>0.999723833051956</v>
-      </c>
-      <c r="C218" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
-        <v>220</v>
-      </c>
-      <c r="B219" t="n">
-        <v>0.997090313278805</v>
-      </c>
-      <c r="C219" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
-        <v>221</v>
-      </c>
-      <c r="B220" t="n">
-        <v>0.999999648960473</v>
-      </c>
-      <c r="C220" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
-        <v>222</v>
-      </c>
-      <c r="B221" t="n">
-        <v>0.628332295780625</v>
-      </c>
-      <c r="C221" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s">
-        <v>223</v>
-      </c>
-      <c r="B222" t="n">
-        <v>1</v>
-      </c>
-      <c r="C222" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s">
-        <v>224</v>
-      </c>
-      <c r="B223" t="n">
-        <v>0.999755976631686</v>
-      </c>
-      <c r="C223" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s">
-        <v>225</v>
-      </c>
-      <c r="B224" t="n">
-        <v>1</v>
-      </c>
-      <c r="C224" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s">
-        <v>226</v>
-      </c>
-      <c r="B225" t="n">
-        <v>0.99999951349483</v>
-      </c>
-      <c r="C225" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s">
-        <v>227</v>
-      </c>
-      <c r="B226" t="n">
-        <v>1</v>
-      </c>
-      <c r="C226" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
-        <v>228</v>
-      </c>
-      <c r="B227" t="n">
-        <v>0.998696769772055</v>
-      </c>
-      <c r="C227" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>229</v>
-      </c>
-      <c r="B228" t="n">
-        <v>0.999999906697812</v>
-      </c>
-      <c r="C228" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s">
-        <v>230</v>
-      </c>
-      <c r="B229" t="n">
-        <v>0.846320074688435</v>
-      </c>
-      <c r="C229" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>231</v>
-      </c>
-      <c r="B230" t="n">
-        <v>0.999993501152982</v>
-      </c>
-      <c r="C230" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>232</v>
-      </c>
-      <c r="B231" t="n">
-        <v>1</v>
-      </c>
-      <c r="C231" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>233</v>
-      </c>
-      <c r="B232" t="n">
-        <v>0.781903665911441</v>
-      </c>
-      <c r="C232" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>234</v>
-      </c>
-      <c r="B233" t="n">
-        <v>0.999999999998802</v>
-      </c>
-      <c r="C233" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>235</v>
-      </c>
-      <c r="B234" t="n">
-        <v>1</v>
-      </c>
-      <c r="C234" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>236</v>
-      </c>
-      <c r="B235" t="n">
-        <v>0.543200579757333</v>
-      </c>
-      <c r="C235" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>237</v>
-      </c>
-      <c r="B236" t="n">
-        <v>0.999806025200488</v>
-      </c>
-      <c r="C236" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>238</v>
-      </c>
-      <c r="B237" t="n">
-        <v>0.853313166387817</v>
-      </c>
-      <c r="C237" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>239</v>
-      </c>
-      <c r="B238" t="n">
-        <v>1</v>
-      </c>
-      <c r="C238" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>240</v>
-      </c>
-      <c r="B239" t="n">
-        <v>0.999903119323684</v>
-      </c>
-      <c r="C239" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>241</v>
-      </c>
-      <c r="B240" t="n">
-        <v>0.954397922460752</v>
-      </c>
-      <c r="C240" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>242</v>
-      </c>
-      <c r="B241" t="n">
-        <v>0.930954038639779</v>
-      </c>
-      <c r="C241" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>243</v>
-      </c>
-      <c r="B242" t="n">
-        <v>1</v>
-      </c>
-      <c r="C242" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s">
-        <v>244</v>
-      </c>
-      <c r="B243" t="n">
-        <v>0.873367133980306</v>
-      </c>
-      <c r="C243" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>245</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0.999999999998777</v>
-      </c>
-      <c r="C244" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="s">
-        <v>246</v>
-      </c>
-      <c r="B245" t="n">
-        <v>0.961853624286684</v>
-      </c>
-      <c r="C245" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="s">
-        <v>247</v>
-      </c>
-      <c r="B246" t="n">
-        <v>0.997468986860378</v>
-      </c>
-      <c r="C246" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="s">
-        <v>248</v>
-      </c>
-      <c r="B247" t="n">
-        <v>0.912616198644308</v>
-      </c>
-      <c r="C247" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="s">
-        <v>249</v>
-      </c>
-      <c r="B248" t="n">
-        <v>0.988561773895206</v>
-      </c>
-      <c r="C248" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="s">
-        <v>250</v>
-      </c>
-      <c r="B249" t="n">
-        <v>1</v>
-      </c>
-      <c r="C249" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s">
-        <v>251</v>
-      </c>
-      <c r="B250" t="n">
-        <v>0.999999973283538</v>
-      </c>
-      <c r="C250" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="s">
-        <v>252</v>
-      </c>
-      <c r="B251" t="n">
-        <v>0.999999959955313</v>
-      </c>
-      <c r="C251" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="s">
-        <v>253</v>
-      </c>
-      <c r="B252" t="n">
-        <v>0.999999999776351</v>
-      </c>
-      <c r="C252" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s">
-        <v>254</v>
-      </c>
-      <c r="B253" t="n">
-        <v>0.999999995687907</v>
-      </c>
-      <c r="C253" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s">
-        <v>255</v>
-      </c>
-      <c r="B254" t="n">
-        <v>0.977541027496427</v>
-      </c>
-      <c r="C254" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="s">
-        <v>256</v>
-      </c>
-      <c r="B255" t="n">
-        <v>0.99999999999992</v>
-      </c>
-      <c r="C255" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="s">
-        <v>257</v>
-      </c>
-      <c r="B256" t="n">
-        <v>0.999794519211239</v>
-      </c>
-      <c r="C256" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="s">
-        <v>258</v>
-      </c>
-      <c r="B257" t="n">
-        <v>0.999997473700977</v>
-      </c>
-      <c r="C257" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="s">
-        <v>259</v>
-      </c>
-      <c r="B258" t="n">
-        <v>1</v>
-      </c>
-      <c r="C258" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="s">
-        <v>260</v>
-      </c>
-      <c r="B259" t="n">
-        <v>0.999999655824034</v>
-      </c>
-      <c r="C259" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="s">
-        <v>261</v>
-      </c>
-      <c r="B260" t="n">
-        <v>0.697394930522349</v>
-      </c>
-      <c r="C260" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="s">
-        <v>262</v>
-      </c>
-      <c r="B261" t="n">
-        <v>0.999999562434203</v>
-      </c>
-      <c r="C261" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="s">
-        <v>263</v>
-      </c>
-      <c r="B262" t="n">
-        <v>0.999999999999514</v>
-      </c>
-      <c r="C262" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="s">
-        <v>264</v>
-      </c>
-      <c r="B263" t="n">
-        <v>0.927425297174386</v>
-      </c>
-      <c r="C263" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="s">
-        <v>265</v>
-      </c>
-      <c r="B264" t="n">
-        <v>0.99999475973891</v>
-      </c>
-      <c r="C264" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="s">
-        <v>266</v>
-      </c>
-      <c r="B265" t="n">
-        <v>0.999999992690021</v>
-      </c>
-      <c r="C265" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="s">
-        <v>267</v>
-      </c>
-      <c r="B266" t="n">
-        <v>0.999370387657284</v>
-      </c>
-      <c r="C266" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="s">
-        <v>268</v>
-      </c>
-      <c r="B267" t="n">
-        <v>0.999999999999611</v>
-      </c>
-      <c r="C267" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="s">
-        <v>269</v>
-      </c>
-      <c r="B268" t="n">
-        <v>0.999964914618375</v>
-      </c>
-      <c r="C268" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="s">
-        <v>270</v>
-      </c>
-      <c r="B269" t="n">
-        <v>0.999999997072841</v>
-      </c>
-      <c r="C269" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="s">
-        <v>271</v>
-      </c>
-      <c r="B270" t="n">
-        <v>0.983762419421396</v>
-      </c>
-      <c r="C270" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="s">
-        <v>272</v>
-      </c>
-      <c r="B271" t="n">
-        <v>0.998691231347806</v>
-      </c>
-      <c r="C271" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="s">
-        <v>273</v>
-      </c>
-      <c r="B272" t="n">
-        <v>0.99494824601232</v>
-      </c>
-      <c r="C272" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="s">
-        <v>274</v>
-      </c>
-      <c r="B273" t="n">
-        <v>1</v>
-      </c>
-      <c r="C273" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="s">
-        <v>275</v>
-      </c>
-      <c r="B274" t="n">
-        <v>0.999999999999977</v>
-      </c>
-      <c r="C274" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="s">
-        <v>276</v>
-      </c>
-      <c r="B275" t="n">
-        <v>1</v>
-      </c>
-      <c r="C275" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="s">
-        <v>277</v>
-      </c>
-      <c r="B276" t="n">
-        <v>0.999999223915934</v>
-      </c>
-      <c r="C276" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="s">
-        <v>278</v>
-      </c>
-      <c r="B277" t="n">
-        <v>0.998056057046163</v>
-      </c>
-      <c r="C277" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="s">
-        <v>279</v>
-      </c>
-      <c r="B278" t="n">
-        <v>0.859131113988649</v>
-      </c>
-      <c r="C278" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="s">
-        <v>280</v>
-      </c>
-      <c r="B279" t="n">
-        <v>0.999988438289552</v>
-      </c>
-      <c r="C279" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="s">
-        <v>281</v>
-      </c>
-      <c r="B280" t="n">
-        <v>0.730827043788557</v>
-      </c>
-      <c r="C280" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="s">
-        <v>282</v>
-      </c>
-      <c r="B281" t="n">
-        <v>0.999999915315386</v>
-      </c>
-      <c r="C281" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="s">
-        <v>283</v>
-      </c>
-      <c r="B282" t="n">
-        <v>0.999979270083558</v>
-      </c>
-      <c r="C282" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="s">
-        <v>284</v>
-      </c>
-      <c r="B283" t="n">
-        <v>1</v>
-      </c>
-      <c r="C283" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="s">
-        <v>285</v>
-      </c>
-      <c r="B284" t="n">
-        <v>0.999999999996151</v>
-      </c>
-      <c r="C284" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="s">
-        <v>286</v>
-      </c>
-      <c r="B285" t="n">
-        <v>1</v>
-      </c>
-      <c r="C285" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="s">
-        <v>287</v>
-      </c>
-      <c r="B286" t="n">
-        <v>0.999999999999994</v>
-      </c>
-      <c r="C286" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="s">
-        <v>288</v>
-      </c>
-      <c r="B287" t="n">
-        <v>0.99999999999888</v>
-      </c>
-      <c r="C287" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="s">
-        <v>289</v>
-      </c>
-      <c r="B288" t="n">
-        <v>0.999999997416079</v>
-      </c>
-      <c r="C288" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="s">
-        <v>290</v>
-      </c>
-      <c r="B289" t="n">
-        <v>0.999964400114932</v>
-      </c>
-      <c r="C289" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="s">
-        <v>291</v>
-      </c>
-      <c r="B290" t="n">
-        <v>0.999999999999933</v>
-      </c>
-      <c r="C290" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s">
-        <v>292</v>
-      </c>
-      <c r="B291" t="n">
-        <v>0.768020873657444</v>
-      </c>
-      <c r="C291" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="s">
-        <v>293</v>
-      </c>
-      <c r="B292" t="n">
-        <v>0.99999999999984</v>
-      </c>
-      <c r="C292" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="s">
-        <v>294</v>
-      </c>
-      <c r="B293" t="n">
-        <v>0.999996459075592</v>
-      </c>
-      <c r="C293" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="s">
-        <v>295</v>
-      </c>
-      <c r="B294" t="n">
-        <v>0.999999999999891</v>
-      </c>
-      <c r="C294" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="s">
-        <v>296</v>
-      </c>
-      <c r="B295" t="n">
-        <v>0.999999999996809</v>
-      </c>
-      <c r="C295" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="s">
-        <v>297</v>
-      </c>
-      <c r="B296" t="n">
-        <v>0.782209109430827</v>
-      </c>
-      <c r="C296" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="s">
-        <v>298</v>
-      </c>
-      <c r="B297" t="n">
-        <v>0.904153416371414</v>
-      </c>
-      <c r="C297" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="s">
-        <v>299</v>
-      </c>
-      <c r="B298" t="n">
-        <v>0.999994587628608</v>
-      </c>
-      <c r="C298" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="s">
-        <v>300</v>
-      </c>
-      <c r="B299" t="n">
-        <v>0.999999999999356</v>
-      </c>
-      <c r="C299" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="s">
-        <v>301</v>
-      </c>
-      <c r="B300" t="n">
-        <v>0.999993587786757</v>
-      </c>
-      <c r="C300" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="s">
-        <v>302</v>
-      </c>
-      <c r="B301" t="n">
-        <v>0.999999999989292</v>
-      </c>
-      <c r="C301" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="s">
-        <v>303</v>
-      </c>
-      <c r="B302" t="n">
-        <v>0.999849855884146</v>
-      </c>
-      <c r="C302" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="s">
-        <v>304</v>
-      </c>
-      <c r="B303" t="n">
-        <v>0.999999999999969</v>
-      </c>
-      <c r="C303" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="s">
-        <v>305</v>
-      </c>
-      <c r="B304" t="n">
-        <v>0.999804271337928</v>
-      </c>
-      <c r="C304" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="s">
-        <v>306</v>
-      </c>
-      <c r="B305" t="n">
-        <v>0.997201999908462</v>
-      </c>
-      <c r="C305" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="s">
-        <v>307</v>
-      </c>
-      <c r="B306" t="n">
-        <v>0.999999999114407</v>
-      </c>
-      <c r="C306" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="s">
-        <v>308</v>
-      </c>
-      <c r="B307" t="n">
-        <v>0.772855989446805</v>
-      </c>
-      <c r="C307" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="s">
-        <v>309</v>
-      </c>
-      <c r="B308" t="n">
-        <v>1</v>
-      </c>
-      <c r="C308" t="n">
         <v>2</v>
       </c>
     </row>
